--- a/scripts/dataimport/ecology/UA_SED/04_sed_conversion.xlsx
+++ b/scripts/dataimport/ecology/UA_SED/04_sed_conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\dataimport\ecology\UA_SED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB5C2DB-028F-4B89-BC10-68A2018C32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D03B15-50C4-4BFB-BAE3-8B07707A1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{57B7A4E8-8F69-48D3-8CB0-FE6640A9647D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57B7A4E8-8F69-48D3-8CB0-FE6640A9647D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,16 +486,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -506,7 +506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -613,11 +613,11 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <f>32/1000</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <f>1000/32</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
